--- a/test/xlsx/h5writeArray.xlsx
+++ b/test/xlsx/h5writeArray.xlsx
@@ -401,9 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -417,7 +415,7 @@
       </c>
       <c r="B1" s="1" t="str">
         <f>_xll.h5newFile()</f>
-        <v>c:\users\gerd\appdata\local\temp\tmpx1s_mj.h5</v>
+        <v>c:\users\gerd\appdata\local\temp\tmp5hsgbi.h5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -470,25 +468,25 @@
         <v>1.23</v>
       </c>
       <c r="C6">
-        <v>4.5599999999999996</v>
+        <v>1.23</v>
       </c>
       <c r="D6">
         <v>1.23</v>
       </c>
       <c r="E6">
-        <v>4.5599999999999996</v>
+        <v>1.23</v>
       </c>
       <c r="F6">
         <v>1.23</v>
       </c>
       <c r="G6">
-        <v>4.5599999999999996</v>
+        <v>1.23</v>
       </c>
       <c r="H6">
         <v>1.23</v>
       </c>
       <c r="I6">
-        <v>4.5599999999999996</v>
+        <v>1.23</v>
       </c>
       <c r="J6">
         <v>1.23</v>
@@ -570,7 +568,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +587,7 @@
       </c>
       <c r="B1" s="1" t="str">
         <f>_xll.h5newFile()</f>
-        <v>c:\users\gerd\appdata\local\temp\tmpy3mrlq.h5</v>
+        <v>c:\users\gerd\appdata\local\temp\tmpnz0tyl.h5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
